--- a/语文排名赋分结果_动态识别版.xlsx
+++ b/语文排名赋分结果_动态识别版.xlsx
@@ -5005,10 +5005,10 @@
         <v>41</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U19" t="n">
         <v>72.56999999999999</v>
@@ -5131,10 +5131,10 @@
         <v>17</v>
       </c>
       <c r="BI19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ19" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BK19" t="n">
         <v>68.37</v>
@@ -5194,16 +5194,16 @@
         <v>40</v>
       </c>
       <c r="CD19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE19" t="n">
-        <v>6.100000000000001</v>
+        <v>6.200000000000001</v>
       </c>
       <c r="CF19" t="n">
-        <v>5.440000000000001</v>
+        <v>5.540000000000001</v>
       </c>
       <c r="CG19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -5442,7 +5442,7 @@
         <v>5.178</v>
       </c>
       <c r="CG20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -5681,7 +5681,7 @@
         <v>5.494000000000001</v>
       </c>
       <c r="CG21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -5942,7 +5942,7 @@
         <v>5.440000000000001</v>
       </c>
       <c r="CG22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -6329,10 +6329,10 @@
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AP24" t="n">
         <v>80.34999999999999</v>
@@ -6392,10 +6392,10 @@
         <v>66</v>
       </c>
       <c r="BI24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ24" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BK24" t="n">
         <v>75.59</v>
@@ -6461,7 +6461,7 @@
         <v>6.3</v>
       </c>
       <c r="CF24" t="n">
-        <v>5.180000000000001</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="CG24" t="n">
         <v>22</v>
@@ -6590,10 +6590,10 @@
         <v>69</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AP25" t="n">
         <v>75.67</v>
@@ -6722,10 +6722,10 @@
         <v>5.3</v>
       </c>
       <c r="CF25" t="n">
-        <v>5.16</v>
+        <v>5.18</v>
       </c>
       <c r="CG25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -6851,10 +6851,10 @@
         <v>146</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.4</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="AP26" t="n">
         <v>68.39</v>
@@ -6983,10 +6983,10 @@
         <v>2</v>
       </c>
       <c r="CF26" t="n">
-        <v>5.080000000000002</v>
+        <v>5.120000000000001</v>
       </c>
       <c r="CG26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -7175,10 +7175,10 @@
         <v>41</v>
       </c>
       <c r="BI27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BK27" t="n">
         <v>77.31</v>
@@ -7238,13 +7238,13 @@
         <v>105</v>
       </c>
       <c r="CD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="CF27" t="n">
-        <v>5.12</v>
+        <v>5.16</v>
       </c>
       <c r="CG27" t="n">
         <v>25</v>
@@ -7499,13 +7499,13 @@
         <v>103</v>
       </c>
       <c r="CD28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="CF28" t="n">
-        <v>4.880000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="CG28" t="n">
         <v>35</v>
@@ -7697,10 +7697,10 @@
         <v>69</v>
       </c>
       <c r="BI29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BK29" t="n">
         <v>68.43000000000001</v>
@@ -7766,7 +7766,7 @@
         <v>7.4</v>
       </c>
       <c r="CF29" t="n">
-        <v>5.08</v>
+        <v>5.1</v>
       </c>
       <c r="CG29" t="n">
         <v>28</v>
@@ -8030,7 +8030,7 @@
         <v>5.12</v>
       </c>
       <c r="CG30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -9074,7 +9074,7 @@
         <v>4.9</v>
       </c>
       <c r="CG34" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -9263,10 +9263,10 @@
         <v>148</v>
       </c>
       <c r="BI35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ35" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="BK35" t="n">
         <v>61.55</v>
@@ -9332,10 +9332,10 @@
         <v>7.600000000000001</v>
       </c>
       <c r="CF35" t="n">
-        <v>4.920000000000001</v>
+        <v>4.96</v>
       </c>
       <c r="CG35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -9398,10 +9398,10 @@
         <v>16</v>
       </c>
       <c r="S36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T36" t="n">
-        <v>5.300000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="U36" t="n">
         <v>70.47</v>
@@ -9593,10 +9593,10 @@
         <v>5.6</v>
       </c>
       <c r="CF36" t="n">
-        <v>4.86</v>
+        <v>4.94</v>
       </c>
       <c r="CG36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -9659,10 +9659,10 @@
         <v>39</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>5.2</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="U37" t="n">
         <v>70.95999999999999</v>
@@ -9785,10 +9785,10 @@
         <v>70</v>
       </c>
       <c r="BI37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BK37" t="n">
         <v>69.52</v>
@@ -9854,10 +9854,10 @@
         <v>4.5</v>
       </c>
       <c r="CF37" t="n">
-        <v>4.900000000000001</v>
+        <v>4.960000000000001</v>
       </c>
       <c r="CG37" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -9983,10 +9983,10 @@
         <v>148</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO38" t="n">
-        <v>4.600000000000001</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="AP38" t="n">
         <v>69.01000000000001</v>
@@ -10109,16 +10109,16 @@
         <v>95</v>
       </c>
       <c r="CD38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE38" t="n">
-        <v>4.2</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="CF38" t="n">
-        <v>4.720000000000001</v>
+        <v>4.78</v>
       </c>
       <c r="CG38" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -10307,10 +10307,10 @@
         <v>127</v>
       </c>
       <c r="BI39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ39" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BK39" t="n">
         <v>60.28</v>
@@ -10376,7 +10376,7 @@
         <v>6.999999999999999</v>
       </c>
       <c r="CF39" t="n">
-        <v>4.859999999999999</v>
+        <v>4.88</v>
       </c>
       <c r="CG39" t="n">
         <v>37</v>
@@ -10442,10 +10442,10 @@
         <v>40</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T40" t="n">
-        <v>5.7</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="U40" t="n">
         <v>76.48</v>
@@ -10631,13 +10631,13 @@
         <v>66</v>
       </c>
       <c r="CD40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE40" t="n">
-        <v>5.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="CF40" t="n">
-        <v>4.720000000000001</v>
+        <v>4.780000000000001</v>
       </c>
       <c r="CG40" t="n">
         <v>39</v>
@@ -10703,10 +10703,10 @@
         <v>67</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="n">
-        <v>5.500000000000001</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="U41" t="n">
         <v>68.89</v>
@@ -10898,7 +10898,7 @@
         <v>1.3</v>
       </c>
       <c r="CF41" t="n">
-        <v>4.760000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="CG41" t="n">
         <v>38</v>
@@ -11351,10 +11351,10 @@
         <v>151</v>
       </c>
       <c r="BI43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ43" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="BK43" t="n">
         <v>65.59</v>
@@ -11420,10 +11420,10 @@
         <v>5</v>
       </c>
       <c r="CF43" t="n">
-        <v>4.720000000000001</v>
+        <v>4.76</v>
       </c>
       <c r="CG43" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -11612,10 +11612,10 @@
         <v>128</v>
       </c>
       <c r="BI44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ44" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="BK44" t="n">
         <v>79.04000000000001</v>
@@ -11675,13 +11675,13 @@
         <v>104</v>
       </c>
       <c r="CD44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE44" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="CF44" t="n">
-        <v>4.600000000000001</v>
+        <v>4.640000000000001</v>
       </c>
       <c r="CG44" t="n">
         <v>44</v>
@@ -11810,10 +11810,10 @@
         <v>133</v>
       </c>
       <c r="AN45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO45" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AP45" t="n">
         <v>73.67</v>
@@ -11942,10 +11942,10 @@
         <v>3</v>
       </c>
       <c r="CF45" t="n">
-        <v>4.460000000000001</v>
+        <v>4.48</v>
       </c>
       <c r="CG45" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46">
@@ -12134,10 +12134,10 @@
         <v>38</v>
       </c>
       <c r="BI46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ46" t="n">
-        <v>6.899999999999999</v>
+        <v>7</v>
       </c>
       <c r="BK46" t="n">
         <v>74.75</v>
@@ -12203,10 +12203,10 @@
         <v>3.5</v>
       </c>
       <c r="CF46" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="CG46" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -12854,10 +12854,10 @@
         <v>65</v>
       </c>
       <c r="AN49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO49" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AP49" t="n">
         <v>68.23</v>
@@ -12980,16 +12980,16 @@
         <v>127</v>
       </c>
       <c r="CD49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE49" t="n">
-        <v>4.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="CF49" t="n">
-        <v>4.6</v>
+        <v>4.640000000000001</v>
       </c>
       <c r="CG49" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -13115,10 +13115,10 @@
         <v>101</v>
       </c>
       <c r="AN50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO50" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AP50" t="n">
         <v>72.61</v>
@@ -13247,10 +13247,10 @@
         <v>4.3</v>
       </c>
       <c r="CF50" t="n">
-        <v>4.600000000000001</v>
+        <v>4.620000000000001</v>
       </c>
       <c r="CG50" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -13502,16 +13502,16 @@
         <v>69</v>
       </c>
       <c r="CD51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE51" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="CF51" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="CG51" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52">
@@ -13637,10 +13637,10 @@
         <v>17</v>
       </c>
       <c r="AN52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO52" t="n">
-        <v>4.300000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="AP52" t="n">
         <v>72.95999999999999</v>
@@ -13700,10 +13700,10 @@
         <v>154</v>
       </c>
       <c r="BI52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ52" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BK52" t="n">
         <v>73.41</v>
@@ -13769,10 +13769,10 @@
         <v>3.5</v>
       </c>
       <c r="CF52" t="n">
-        <v>4.36</v>
+        <v>4.44</v>
       </c>
       <c r="CG52" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
@@ -14024,16 +14024,16 @@
         <v>128</v>
       </c>
       <c r="CD53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE53" t="n">
-        <v>5.000000000000001</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="CF53" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="CG53" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
@@ -14096,10 +14096,10 @@
         <v>68</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="U54" t="n">
         <v>68.70999999999999</v>
@@ -14285,16 +14285,16 @@
         <v>17</v>
       </c>
       <c r="CD54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE54" t="n">
-        <v>7.4</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="CF54" t="n">
-        <v>4.52</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="CG54" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55">
@@ -14357,10 +14357,10 @@
         <v>153</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="U55" t="n">
         <v>56.31</v>
@@ -14546,16 +14546,16 @@
         <v>133</v>
       </c>
       <c r="CD55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE55" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="CF55" t="n">
-        <v>4.14</v>
+        <v>4.24</v>
       </c>
       <c r="CG55" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56">
@@ -15077,7 +15077,7 @@
         <v>4.48</v>
       </c>
       <c r="CG57" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58">
@@ -15266,10 +15266,10 @@
         <v>126</v>
       </c>
       <c r="BI58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ58" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BK58" t="n">
         <v>75.67</v>
@@ -15329,13 +15329,13 @@
         <v>96</v>
       </c>
       <c r="CD58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE58" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="CF58" t="n">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
       <c r="CG58" t="n">
         <v>59</v>
@@ -15590,16 +15590,16 @@
         <v>131</v>
       </c>
       <c r="CD59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE59" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="CF59" t="n">
-        <v>4.24</v>
+        <v>4.260000000000001</v>
       </c>
       <c r="CG59" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60">
@@ -15860,7 +15860,7 @@
         <v>4.42</v>
       </c>
       <c r="CG60" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
@@ -15923,10 +15923,10 @@
         <v>104</v>
       </c>
       <c r="S61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T61" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="U61" t="n">
         <v>67.34</v>
@@ -16049,10 +16049,10 @@
         <v>132</v>
       </c>
       <c r="BI61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ61" t="n">
-        <v>2.600000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="BK61" t="n">
         <v>71.63</v>
@@ -16118,10 +16118,10 @@
         <v>4.100000000000001</v>
       </c>
       <c r="CF61" t="n">
-        <v>4.359999999999999</v>
+        <v>4.42</v>
       </c>
       <c r="CG61" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62">
@@ -16382,7 +16382,7 @@
         <v>4.42</v>
       </c>
       <c r="CG62" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
@@ -16445,10 +16445,10 @@
         <v>42</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T63" t="n">
-        <v>4.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="U63" t="n">
         <v>68.20999999999999</v>
@@ -16508,10 +16508,10 @@
         <v>40</v>
       </c>
       <c r="AN63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO63" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AP63" t="n">
         <v>71.12</v>
@@ -16571,10 +16571,10 @@
         <v>40</v>
       </c>
       <c r="BI63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ63" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BK63" t="n">
         <v>71.68000000000001</v>
@@ -16634,16 +16634,16 @@
         <v>121</v>
       </c>
       <c r="CD63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE63" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="CF63" t="n">
-        <v>4.24</v>
+        <v>4.340000000000001</v>
       </c>
       <c r="CG63" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
@@ -16769,10 +16769,10 @@
         <v>121</v>
       </c>
       <c r="AN64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO64" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AP64" t="n">
         <v>68.90000000000001</v>
@@ -16901,10 +16901,10 @@
         <v>6</v>
       </c>
       <c r="CF64" t="n">
-        <v>4.280000000000001</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="CG64" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -16967,10 +16967,10 @@
         <v>64</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T65" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="U65" t="n">
         <v>66.39</v>
@@ -17162,10 +17162,10 @@
         <v>3.4</v>
       </c>
       <c r="CF65" t="n">
-        <v>4.18</v>
+        <v>4.220000000000001</v>
       </c>
       <c r="CG65" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66">
@@ -17291,10 +17291,10 @@
         <v>124</v>
       </c>
       <c r="AN66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO66" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AP66" t="n">
         <v>73.87</v>
@@ -17417,16 +17417,16 @@
         <v>126</v>
       </c>
       <c r="CD66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE66" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="CF66" t="n">
-        <v>4.240000000000001</v>
+        <v>4.280000000000001</v>
       </c>
       <c r="CG66" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67">
@@ -17552,10 +17552,10 @@
         <v>142</v>
       </c>
       <c r="AN67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO67" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP67" t="n">
         <v>76.34</v>
@@ -17684,10 +17684,10 @@
         <v>6.3</v>
       </c>
       <c r="CF67" t="n">
-        <v>4.28</v>
+        <v>4.32</v>
       </c>
       <c r="CG67" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68">
@@ -17948,7 +17948,7 @@
         <v>4.32</v>
       </c>
       <c r="CG68" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69">
@@ -18011,10 +18011,10 @@
         <v>126</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T69" t="n">
-        <v>4.600000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="U69" t="n">
         <v>69.5</v>
@@ -18074,10 +18074,10 @@
         <v>157</v>
       </c>
       <c r="AN69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO69" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AP69" t="n">
         <v>70.63</v>
@@ -18206,10 +18206,10 @@
         <v>3.9</v>
       </c>
       <c r="CF69" t="n">
-        <v>4.16</v>
+        <v>4.24</v>
       </c>
       <c r="CG69" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70">
@@ -18272,10 +18272,10 @@
         <v>65</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T70" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="U70" t="n">
         <v>65.31</v>
@@ -18461,16 +18461,16 @@
         <v>100</v>
       </c>
       <c r="CD70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE70" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="CF70" t="n">
-        <v>4.12</v>
+        <v>4.18</v>
       </c>
       <c r="CG70" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71">
@@ -18533,10 +18533,10 @@
         <v>38</v>
       </c>
       <c r="S71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T71" t="n">
-        <v>5.1</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="U71" t="n">
         <v>74.5</v>
@@ -18596,10 +18596,10 @@
         <v>125</v>
       </c>
       <c r="AN71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO71" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AP71" t="n">
         <v>74.68000000000001</v>
@@ -18722,16 +18722,16 @@
         <v>102</v>
       </c>
       <c r="CD71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE71" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="CF71" t="n">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="CG71" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
@@ -18992,7 +18992,7 @@
         <v>4.14</v>
       </c>
       <c r="CG72" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
@@ -19118,10 +19118,10 @@
         <v>128</v>
       </c>
       <c r="AN73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO73" t="n">
-        <v>2.800000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="AP73" t="n">
         <v>69.33</v>
@@ -19244,16 +19244,16 @@
         <v>148</v>
       </c>
       <c r="CD73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE73" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="CF73" t="n">
-        <v>4.16</v>
+        <v>4.220000000000001</v>
       </c>
       <c r="CG73" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74">
@@ -19379,10 +19379,10 @@
         <v>126</v>
       </c>
       <c r="AN74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO74" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AP74" t="n">
         <v>78.62</v>
@@ -19511,10 +19511,10 @@
         <v>4.8</v>
       </c>
       <c r="CF74" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="CG74" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
@@ -19703,10 +19703,10 @@
         <v>144</v>
       </c>
       <c r="BI75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ75" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="BK75" t="n">
         <v>69.22</v>
@@ -19766,16 +19766,16 @@
         <v>70</v>
       </c>
       <c r="CD75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE75" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="CF75" t="n">
-        <v>4.08</v>
+        <v>4.14</v>
       </c>
       <c r="CG75" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
@@ -19838,10 +19838,10 @@
         <v>102</v>
       </c>
       <c r="S76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T76" t="n">
-        <v>4</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="U76" t="n">
         <v>65.88</v>
@@ -20033,10 +20033,10 @@
         <v>4.6</v>
       </c>
       <c r="CF76" t="n">
-        <v>4.16</v>
+        <v>4.200000000000001</v>
       </c>
       <c r="CG76" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77">
@@ -20297,7 +20297,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="CG77" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
@@ -20549,16 +20549,16 @@
         <v>155</v>
       </c>
       <c r="CD78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE78" t="n">
-        <v>2.9</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="CF78" t="n">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="CG78" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
@@ -20747,10 +20747,10 @@
         <v>98</v>
       </c>
       <c r="BI79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ79" t="n">
-        <v>3.300000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="BK79" t="n">
         <v>63.73</v>
@@ -20816,10 +20816,10 @@
         <v>5.3</v>
       </c>
       <c r="CF79" t="n">
-        <v>4.16</v>
+        <v>4.18</v>
       </c>
       <c r="CG79" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80">
@@ -20882,10 +20882,10 @@
         <v>130</v>
       </c>
       <c r="S80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T80" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="U80" t="n">
         <v>65.05</v>
@@ -20945,10 +20945,10 @@
         <v>120</v>
       </c>
       <c r="AN80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO80" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AP80" t="n">
         <v>65.94</v>
@@ -21077,7 +21077,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="CF80" t="n">
-        <v>3.92</v>
+        <v>3.98</v>
       </c>
       <c r="CG80" t="n">
         <v>89</v>
@@ -21206,10 +21206,10 @@
         <v>96</v>
       </c>
       <c r="AN81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO81" t="n">
-        <v>5</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="AP81" t="n">
         <v>67.72</v>
@@ -21332,13 +21332,13 @@
         <v>97</v>
       </c>
       <c r="CD81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE81" t="n">
-        <v>3.100000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="CF81" t="n">
-        <v>4.14</v>
+        <v>4.18</v>
       </c>
       <c r="CG81" t="n">
         <v>72</v>
@@ -21467,10 +21467,10 @@
         <v>68</v>
       </c>
       <c r="AN82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO82" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AP82" t="n">
         <v>70</v>
@@ -21593,16 +21593,16 @@
         <v>157</v>
       </c>
       <c r="CD82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE82" t="n">
-        <v>2.600000000000001</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="CF82" t="n">
-        <v>4.080000000000001</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="CG82" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
@@ -21728,10 +21728,10 @@
         <v>63</v>
       </c>
       <c r="AN83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO83" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP83" t="n">
         <v>79.92</v>
@@ -21791,10 +21791,10 @@
         <v>131</v>
       </c>
       <c r="BI83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ83" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="BK83" t="n">
         <v>77.81</v>
@@ -21860,10 +21860,10 @@
         <v>5.800000000000001</v>
       </c>
       <c r="CF83" t="n">
-        <v>4.100000000000001</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="CG83" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84">
@@ -22124,7 +22124,7 @@
         <v>4.120000000000001</v>
       </c>
       <c r="CG84" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
@@ -22250,10 +22250,10 @@
         <v>41</v>
       </c>
       <c r="AN85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO85" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AP85" t="n">
         <v>67.79000000000001</v>
@@ -22376,13 +22376,13 @@
         <v>122</v>
       </c>
       <c r="CD85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE85" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="CF85" t="n">
-        <v>4</v>
+        <v>4.04</v>
       </c>
       <c r="CG85" t="n">
         <v>84</v>
@@ -22772,10 +22772,10 @@
         <v>143</v>
       </c>
       <c r="AN87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO87" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AP87" t="n">
         <v>72.36</v>
@@ -22904,10 +22904,10 @@
         <v>2.899999999999999</v>
       </c>
       <c r="CF87" t="n">
-        <v>3.82</v>
+        <v>3.86</v>
       </c>
       <c r="CG87" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
@@ -22970,10 +22970,10 @@
         <v>96</v>
       </c>
       <c r="S88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T88" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="U88" t="n">
         <v>63.44</v>
@@ -23159,16 +23159,16 @@
         <v>132</v>
       </c>
       <c r="CD88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE88" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="CF88" t="n">
-        <v>3.98</v>
+        <v>4.04</v>
       </c>
       <c r="CG88" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
@@ -23429,7 +23429,7 @@
         <v>3.98</v>
       </c>
       <c r="CG89" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90">
@@ -23492,10 +23492,10 @@
         <v>132</v>
       </c>
       <c r="S90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T90" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="U90" t="n">
         <v>64.48999999999999</v>
@@ -23555,10 +23555,10 @@
         <v>154</v>
       </c>
       <c r="AN90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO90" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AP90" t="n">
         <v>63.05</v>
@@ -23681,16 +23681,16 @@
         <v>147</v>
       </c>
       <c r="CD90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE90" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="CF90" t="n">
-        <v>3.92</v>
+        <v>4.04</v>
       </c>
       <c r="CG90" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91">
@@ -23753,10 +23753,10 @@
         <v>97</v>
       </c>
       <c r="S91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T91" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U91" t="n">
         <v>62.39</v>
@@ -23816,10 +23816,10 @@
         <v>38</v>
       </c>
       <c r="AN91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO91" t="n">
-        <v>4.699999999999999</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="AP91" t="n">
         <v>66.20999999999999</v>
@@ -23948,10 +23948,10 @@
         <v>4.6</v>
       </c>
       <c r="CF91" t="n">
-        <v>3.92</v>
+        <v>3.98</v>
       </c>
       <c r="CG91" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92">
@@ -24212,7 +24212,7 @@
         <v>3.9</v>
       </c>
       <c r="CG92" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
@@ -24401,10 +24401,10 @@
         <v>16</v>
       </c>
       <c r="BI93" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ93" t="n">
-        <v>6.100000000000001</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="BK93" t="n">
         <v>66.48</v>
@@ -24470,10 +24470,10 @@
         <v>2.3</v>
       </c>
       <c r="CF93" t="n">
-        <v>3.98</v>
+        <v>4.02</v>
       </c>
       <c r="CG93" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94">
@@ -24536,10 +24536,10 @@
         <v>124</v>
       </c>
       <c r="S94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T94" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="U94" t="n">
         <v>65.54000000000001</v>
@@ -24662,10 +24662,10 @@
         <v>97</v>
       </c>
       <c r="BI94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ94" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="BK94" t="n">
         <v>66.97</v>
@@ -24731,10 +24731,10 @@
         <v>5.7</v>
       </c>
       <c r="CF94" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="CG94" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95">
@@ -24923,10 +24923,10 @@
         <v>67</v>
       </c>
       <c r="BI95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ95" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BK95" t="n">
         <v>62.49</v>
@@ -24992,10 +24992,10 @@
         <v>5</v>
       </c>
       <c r="CF95" t="n">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="CG95" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96">
@@ -25184,10 +25184,10 @@
         <v>104</v>
       </c>
       <c r="BI96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ96" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BK96" t="n">
         <v>75.81999999999999</v>
@@ -25253,7 +25253,7 @@
         <v>1.9</v>
       </c>
       <c r="CF96" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="CG96" t="n">
         <v>93</v>
@@ -25508,16 +25508,16 @@
         <v>38</v>
       </c>
       <c r="CD97" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE97" t="n">
-        <v>5.7</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="CF97" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="CG97" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
@@ -25643,10 +25643,10 @@
         <v>129</v>
       </c>
       <c r="AN98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO98" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AP98" t="n">
         <v>71.48999999999999</v>
@@ -25775,10 +25775,10 @@
         <v>3.9</v>
       </c>
       <c r="CF98" t="n">
-        <v>3.800000000000001</v>
+        <v>3.820000000000001</v>
       </c>
       <c r="CG98" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
@@ -25967,10 +25967,10 @@
         <v>42</v>
       </c>
       <c r="BI99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ99" t="n">
-        <v>6.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="BK99" t="n">
         <v>73.68000000000001</v>
@@ -26030,16 +26030,16 @@
         <v>146</v>
       </c>
       <c r="CD99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE99" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="CF99" t="n">
-        <v>3.78</v>
+        <v>3.84</v>
       </c>
       <c r="CG99" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
@@ -26102,10 +26102,10 @@
         <v>66</v>
       </c>
       <c r="S100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T100" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="U100" t="n">
         <v>62.71</v>
@@ -26228,10 +26228,10 @@
         <v>105</v>
       </c>
       <c r="BI100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ100" t="n">
-        <v>3.300000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="BK100" t="n">
         <v>62.96</v>
@@ -26297,10 +26297,10 @@
         <v>4.999999999999999</v>
       </c>
       <c r="CF100" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="CG100" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
@@ -26489,10 +26489,10 @@
         <v>63</v>
       </c>
       <c r="BI101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ101" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BK101" t="n">
         <v>76.18000000000001</v>
@@ -26558,10 +26558,10 @@
         <v>0.8</v>
       </c>
       <c r="CF101" t="n">
-        <v>3.720000000000001</v>
+        <v>3.740000000000001</v>
       </c>
       <c r="CG101" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102">
@@ -26624,10 +26624,10 @@
         <v>125</v>
       </c>
       <c r="S102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T102" t="n">
-        <v>3.5</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="U102" t="n">
         <v>63.45</v>
@@ -26687,10 +26687,10 @@
         <v>144</v>
       </c>
       <c r="AN102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO102" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AP102" t="n">
         <v>66.09999999999999</v>
@@ -26813,16 +26813,16 @@
         <v>98</v>
       </c>
       <c r="CD102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE102" t="n">
-        <v>3.300000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="CF102" t="n">
-        <v>3.780000000000001</v>
+        <v>3.880000000000001</v>
       </c>
       <c r="CG102" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103">
@@ -26885,10 +26885,10 @@
         <v>103</v>
       </c>
       <c r="S103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T103" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="U103" t="n">
         <v>66.29000000000001</v>
@@ -27074,13 +27074,13 @@
         <v>65</v>
       </c>
       <c r="CD103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE103" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="CF103" t="n">
-        <v>3.74</v>
+        <v>3.8</v>
       </c>
       <c r="CG103" t="n">
         <v>103</v>
@@ -27209,10 +27209,10 @@
         <v>39</v>
       </c>
       <c r="AN104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO104" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AP104" t="n">
         <v>73.2</v>
@@ -27341,10 +27341,10 @@
         <v>1.8</v>
       </c>
       <c r="CF104" t="n">
-        <v>3.740000000000001</v>
+        <v>3.76</v>
       </c>
       <c r="CG104" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
@@ -27605,7 +27605,7 @@
         <v>3.86</v>
       </c>
       <c r="CG105" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106">
@@ -27794,10 +27794,10 @@
         <v>120</v>
       </c>
       <c r="BI106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ106" t="n">
-        <v>4.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="BK106" t="n">
         <v>75.09</v>
@@ -27863,10 +27863,10 @@
         <v>0.3</v>
       </c>
       <c r="CF106" t="n">
-        <v>3.84</v>
+        <v>3.86</v>
       </c>
       <c r="CG106" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107">
@@ -27929,10 +27929,10 @@
         <v>17</v>
       </c>
       <c r="S107" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T107" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="U107" t="n">
         <v>74.56</v>
@@ -28124,10 +28124,10 @@
         <v>2.6</v>
       </c>
       <c r="CF107" t="n">
-        <v>3.74</v>
+        <v>3.82</v>
       </c>
       <c r="CG107" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
@@ -28190,10 +28190,10 @@
         <v>63</v>
       </c>
       <c r="S108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T108" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="U108" t="n">
         <v>66.88</v>
@@ -28379,16 +28379,16 @@
         <v>129</v>
       </c>
       <c r="CD108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE108" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="CF108" t="n">
-        <v>3.62</v>
+        <v>3.68</v>
       </c>
       <c r="CG108" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
@@ -28640,16 +28640,16 @@
         <v>42</v>
       </c>
       <c r="CD109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE109" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="CF109" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="CG109" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
@@ -28712,10 +28712,10 @@
         <v>69</v>
       </c>
       <c r="S110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T110" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="U110" t="n">
         <v>67.41</v>
@@ -28775,10 +28775,10 @@
         <v>66</v>
       </c>
       <c r="AN110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO110" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AP110" t="n">
         <v>68.59999999999999</v>
@@ -28901,16 +28901,16 @@
         <v>143</v>
       </c>
       <c r="CD110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE110" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="CF110" t="n">
-        <v>3.660000000000001</v>
+        <v>3.760000000000001</v>
       </c>
       <c r="CG110" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
@@ -28973,10 +28973,10 @@
         <v>95</v>
       </c>
       <c r="S111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T111" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="U111" t="n">
         <v>67.09</v>
@@ -29036,10 +29036,10 @@
         <v>131</v>
       </c>
       <c r="AN111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO111" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AP111" t="n">
         <v>66.36</v>
@@ -29162,16 +29162,16 @@
         <v>68</v>
       </c>
       <c r="CD111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE111" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="CF111" t="n">
-        <v>3.720000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="CG111" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112">
@@ -29297,10 +29297,10 @@
         <v>153</v>
       </c>
       <c r="AN112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO112" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP112" t="n">
         <v>75.41</v>
@@ -29360,10 +29360,10 @@
         <v>103</v>
       </c>
       <c r="BI112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ112" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="BK112" t="n">
         <v>69.11</v>
@@ -29429,10 +29429,10 @@
         <v>6.800000000000001</v>
       </c>
       <c r="CF112" t="n">
-        <v>3.66</v>
+        <v>3.72</v>
       </c>
       <c r="CG112" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113">
@@ -29558,10 +29558,10 @@
         <v>67</v>
       </c>
       <c r="AN113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO113" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AP113" t="n">
         <v>70.31999999999999</v>
@@ -29690,10 +29690,10 @@
         <v>2.5</v>
       </c>
       <c r="CF113" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="CG113" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
@@ -29819,10 +29819,10 @@
         <v>100</v>
       </c>
       <c r="AN114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO114" t="n">
-        <v>5.5</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="AP114" t="n">
         <v>72.76000000000001</v>
@@ -29882,10 +29882,10 @@
         <v>142</v>
       </c>
       <c r="BI114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ114" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BK114" t="n">
         <v>70.31999999999999</v>
@@ -29945,16 +29945,16 @@
         <v>39</v>
       </c>
       <c r="CD114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE114" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="CF114" t="n">
-        <v>3.62</v>
+        <v>3.700000000000001</v>
       </c>
       <c r="CG114" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115">
@@ -30080,10 +30080,10 @@
         <v>104</v>
       </c>
       <c r="AN115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO115" t="n">
-        <v>4.399999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="AP115" t="n">
         <v>66.42</v>
@@ -30212,10 +30212,10 @@
         <v>4.4</v>
       </c>
       <c r="CF115" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="CG115" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
@@ -30404,10 +30404,10 @@
         <v>130</v>
       </c>
       <c r="BI116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ116" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BK116" t="n">
         <v>72.33</v>
@@ -30473,7 +30473,7 @@
         <v>3.4</v>
       </c>
       <c r="CF116" t="n">
-        <v>3.580000000000001</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="CG116" t="n">
         <v>115</v>
@@ -30539,10 +30539,10 @@
         <v>123</v>
       </c>
       <c r="S117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T117" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="U117" t="n">
         <v>63.61</v>
@@ -30728,16 +30728,16 @@
         <v>152</v>
       </c>
       <c r="CD117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE117" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="CF117" t="n">
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
       <c r="CG117" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118">
@@ -30989,13 +30989,13 @@
         <v>63</v>
       </c>
       <c r="CD118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE118" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="CF118" t="n">
-        <v>3.580000000000001</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="CG118" t="n">
         <v>115</v>
@@ -31187,10 +31187,10 @@
         <v>147</v>
       </c>
       <c r="BI119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ119" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="BK119" t="n">
         <v>66.20999999999999</v>
@@ -31256,7 +31256,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="CF119" t="n">
-        <v>3.52</v>
+        <v>3.56</v>
       </c>
       <c r="CG119" t="n">
         <v>118</v>
@@ -31322,10 +31322,10 @@
         <v>133</v>
       </c>
       <c r="S120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T120" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="U120" t="n">
         <v>60.17</v>
@@ -31448,10 +31448,10 @@
         <v>100</v>
       </c>
       <c r="BI120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ120" t="n">
-        <v>5.399999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="BK120" t="n">
         <v>60.99</v>
@@ -31511,16 +31511,16 @@
         <v>64</v>
       </c>
       <c r="CD120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE120" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="CF120" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="CG120" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121">
@@ -31709,10 +31709,10 @@
         <v>149</v>
       </c>
       <c r="BI121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ121" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="BK121" t="n">
         <v>56.84</v>
@@ -31778,10 +31778,10 @@
         <v>4.5</v>
       </c>
       <c r="CF121" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="CG121" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122">
@@ -31844,10 +31844,10 @@
         <v>70</v>
       </c>
       <c r="S122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T122" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="U122" t="n">
         <v>66.81999999999999</v>
@@ -31970,10 +31970,10 @@
         <v>129</v>
       </c>
       <c r="BI122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ122" t="n">
-        <v>4.8</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="BK122" t="n">
         <v>69.31999999999999</v>
@@ -32039,10 +32039,10 @@
         <v>3.7</v>
       </c>
       <c r="CF122" t="n">
-        <v>3.48</v>
+        <v>3.54</v>
       </c>
       <c r="CG122" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
@@ -32168,10 +32168,10 @@
         <v>42</v>
       </c>
       <c r="AN123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO123" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AP123" t="n">
         <v>71.39</v>
@@ -32294,13 +32294,13 @@
         <v>142</v>
       </c>
       <c r="CD123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE123" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="CF123" t="n">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="CG123" t="n">
         <v>117</v>
@@ -32492,10 +32492,10 @@
         <v>65</v>
       </c>
       <c r="BI124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ124" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BK124" t="n">
         <v>72.8</v>
@@ -32561,10 +32561,10 @@
         <v>4.300000000000001</v>
       </c>
       <c r="CF124" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="CG124" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125">
@@ -32627,10 +32627,10 @@
         <v>98</v>
       </c>
       <c r="S125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T125" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="U125" t="n">
         <v>65.67</v>
@@ -32690,10 +32690,10 @@
         <v>95</v>
       </c>
       <c r="AN125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO125" t="n">
-        <v>5.2</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="AP125" t="n">
         <v>69.29000000000001</v>
@@ -32822,10 +32822,10 @@
         <v>2.9</v>
       </c>
       <c r="CF125" t="n">
-        <v>3.44</v>
+        <v>3.500000000000001</v>
       </c>
       <c r="CG125" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
@@ -33086,7 +33086,7 @@
         <v>3.52</v>
       </c>
       <c r="CG126" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127">
@@ -33275,10 +33275,10 @@
         <v>68</v>
       </c>
       <c r="BI127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ127" t="n">
-        <v>6.800000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="BK127" t="n">
         <v>74.62</v>
@@ -33344,10 +33344,10 @@
         <v>1.4</v>
       </c>
       <c r="CF127" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="CG127" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
@@ -33536,10 +33536,10 @@
         <v>99</v>
       </c>
       <c r="BI128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ128" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BK128" t="n">
         <v>69.14</v>
@@ -33599,13 +33599,13 @@
         <v>130</v>
       </c>
       <c r="CD128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE128" t="n">
-        <v>2</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="CF128" t="n">
-        <v>3.460000000000001</v>
+        <v>3.500000000000001</v>
       </c>
       <c r="CG128" t="n">
         <v>124</v>
@@ -33671,10 +33671,10 @@
         <v>121</v>
       </c>
       <c r="S129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T129" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="U129" t="n">
         <v>62.74</v>
@@ -33860,16 +33860,16 @@
         <v>145</v>
       </c>
       <c r="CD129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE129" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="CF129" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="CG129" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130">
@@ -33995,10 +33995,10 @@
         <v>97</v>
       </c>
       <c r="AN130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO130" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AP130" t="n">
         <v>68.14</v>
@@ -34127,10 +34127,10 @@
         <v>3.5</v>
       </c>
       <c r="CF130" t="n">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="CG130" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131">
@@ -34193,10 +34193,10 @@
         <v>105</v>
       </c>
       <c r="S131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T131" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="U131" t="n">
         <v>66.92</v>
@@ -34256,10 +34256,10 @@
         <v>150</v>
       </c>
       <c r="AN131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO131" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP131" t="n">
         <v>68.19</v>
@@ -34388,10 +34388,10 @@
         <v>4.100000000000001</v>
       </c>
       <c r="CF131" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="CG131" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132">
@@ -34652,7 +34652,7 @@
         <v>3.380000000000001</v>
       </c>
       <c r="CG132" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
@@ -34778,10 +34778,10 @@
         <v>16</v>
       </c>
       <c r="AN133" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO133" t="n">
-        <v>5.199999999999999</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="AP133" t="n">
         <v>65.43000000000001</v>
@@ -34841,10 +34841,10 @@
         <v>145</v>
       </c>
       <c r="BI133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ133" t="n">
-        <v>3.4</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BK133" t="n">
         <v>64.73</v>
@@ -34904,16 +34904,16 @@
         <v>41</v>
       </c>
       <c r="CD133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE133" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="CF133" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="CG133" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134">
@@ -35174,7 +35174,7 @@
         <v>3.380000000000001</v>
       </c>
       <c r="CG134" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
@@ -35237,10 +35237,10 @@
         <v>127</v>
       </c>
       <c r="S135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T135" t="n">
-        <v>2.8</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="U135" t="n">
         <v>62.92</v>
@@ -35300,10 +35300,10 @@
         <v>105</v>
       </c>
       <c r="AN135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO135" t="n">
-        <v>3.9</v>
+        <v>4.000000000000001</v>
       </c>
       <c r="AP135" t="n">
         <v>65.68000000000001</v>
@@ -35432,10 +35432,10 @@
         <v>2.9</v>
       </c>
       <c r="CF135" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="CG135" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
@@ -35624,10 +35624,10 @@
         <v>122</v>
       </c>
       <c r="BI136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ136" t="n">
-        <v>4.100000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="BK136" t="n">
         <v>66.43000000000001</v>
@@ -35693,10 +35693,10 @@
         <v>1.4</v>
       </c>
       <c r="CF136" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="CG136" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
@@ -35885,10 +35885,10 @@
         <v>96</v>
       </c>
       <c r="BI137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ137" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="BK137" t="n">
         <v>70.77</v>
@@ -35948,13 +35948,13 @@
         <v>101</v>
       </c>
       <c r="CD137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE137" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="CF137" t="n">
-        <v>3.28</v>
+        <v>3.320000000000001</v>
       </c>
       <c r="CG137" t="n">
         <v>132</v>
@@ -36020,10 +36020,10 @@
         <v>156</v>
       </c>
       <c r="S138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T138" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U138" t="n">
         <v>53.75</v>
@@ -36083,10 +36083,10 @@
         <v>145</v>
       </c>
       <c r="AN138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO138" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AP138" t="n">
         <v>58.02</v>
@@ -36146,10 +36146,10 @@
         <v>121</v>
       </c>
       <c r="BI138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ138" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="BK138" t="n">
         <v>53.94</v>
@@ -36215,10 +36215,10 @@
         <v>5.399999999999999</v>
       </c>
       <c r="CF138" t="n">
-        <v>3.16</v>
+        <v>3.3</v>
       </c>
       <c r="CG138" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139">
@@ -36407,10 +36407,10 @@
         <v>150</v>
       </c>
       <c r="BI139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ139" t="n">
-        <v>2.9</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BK139" t="n">
         <v>68.98999999999999</v>
@@ -36476,10 +36476,10 @@
         <v>3.7</v>
       </c>
       <c r="CF139" t="n">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="CG139" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140">
@@ -36542,10 +36542,10 @@
         <v>99</v>
       </c>
       <c r="S140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T140" t="n">
-        <v>2.399999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="U140" t="n">
         <v>67.03</v>
@@ -36737,10 +36737,10 @@
         <v>3</v>
       </c>
       <c r="CF140" t="n">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="CG140" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141">
@@ -36866,10 +36866,10 @@
         <v>98</v>
       </c>
       <c r="AN141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO141" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AP141" t="n">
         <v>64.66</v>
@@ -36998,10 +36998,10 @@
         <v>4.600000000000001</v>
       </c>
       <c r="CF141" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="CG141" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142">
@@ -37127,10 +37127,10 @@
         <v>122</v>
       </c>
       <c r="AN142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO142" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AP142" t="n">
         <v>70.91</v>
@@ -37259,10 +37259,10 @@
         <v>5.6</v>
       </c>
       <c r="CF142" t="n">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="CG142" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
@@ -37514,16 +37514,16 @@
         <v>67</v>
       </c>
       <c r="CD143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE143" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="CF143" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="CG143" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144">
@@ -37649,10 +37649,10 @@
         <v>102</v>
       </c>
       <c r="AN144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO144" t="n">
-        <v>4.5</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="AP144" t="n">
         <v>64.72</v>
@@ -37712,10 +37712,10 @@
         <v>124</v>
       </c>
       <c r="BI144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ144" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="BK144" t="n">
         <v>66.73</v>
@@ -37781,10 +37781,10 @@
         <v>3.5</v>
       </c>
       <c r="CF144" t="n">
-        <v>3.140000000000001</v>
+        <v>3.180000000000001</v>
       </c>
       <c r="CG144" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
@@ -37973,10 +37973,10 @@
         <v>102</v>
       </c>
       <c r="BI145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ145" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BK145" t="n">
         <v>70.70999999999999</v>
@@ -38042,10 +38042,10 @@
         <v>4</v>
       </c>
       <c r="CF145" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="CG145" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146">
@@ -38171,10 +38171,10 @@
         <v>64</v>
       </c>
       <c r="AN146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO146" t="n">
-        <v>4.600000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="AP146" t="n">
         <v>71.19</v>
@@ -38234,10 +38234,10 @@
         <v>133</v>
       </c>
       <c r="BI146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ146" t="n">
-        <v>2</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BK146" t="n">
         <v>70.97</v>
@@ -38303,10 +38303,10 @@
         <v>3.1</v>
       </c>
       <c r="CF146" t="n">
-        <v>3.140000000000001</v>
+        <v>3.180000000000001</v>
       </c>
       <c r="CG146" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147">
@@ -38369,10 +38369,10 @@
         <v>147</v>
       </c>
       <c r="S147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T147" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U147" t="n">
         <v>51.49</v>
@@ -38495,10 +38495,10 @@
         <v>157</v>
       </c>
       <c r="BI147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ147" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="BK147" t="n">
         <v>57.08</v>
@@ -38564,10 +38564,10 @@
         <v>5.800000000000001</v>
       </c>
       <c r="CF147" t="n">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="CG147" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
@@ -38828,7 +38828,7 @@
         <v>3.12</v>
       </c>
       <c r="CG148" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
@@ -39089,7 +39089,7 @@
         <v>3</v>
       </c>
       <c r="CG149" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150">
@@ -39278,10 +39278,10 @@
         <v>143</v>
       </c>
       <c r="BI150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ150" t="n">
-        <v>2.600000000000001</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="BK150" t="n">
         <v>67.48999999999999</v>
@@ -39341,16 +39341,16 @@
         <v>16</v>
       </c>
       <c r="CD150" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE150" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="CF150" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="CG150" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151">
@@ -39476,10 +39476,10 @@
         <v>123</v>
       </c>
       <c r="AN151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO151" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AP151" t="n">
         <v>70.09999999999999</v>
@@ -39608,10 +39608,10 @@
         <v>0.2</v>
       </c>
       <c r="CF151" t="n">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="CG151" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152">
@@ -39674,10 +39674,10 @@
         <v>100</v>
       </c>
       <c r="S152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T152" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="U152" t="n">
         <v>66.11</v>
@@ -39800,10 +39800,10 @@
         <v>123</v>
       </c>
       <c r="BI152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ152" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BK152" t="n">
         <v>69.39</v>
@@ -39869,10 +39869,10 @@
         <v>1.9</v>
       </c>
       <c r="CF152" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="CG152" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153">
@@ -39998,10 +39998,10 @@
         <v>99</v>
       </c>
       <c r="AN153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO153" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AP153" t="n">
         <v>70.43000000000001</v>
@@ -40130,10 +40130,10 @@
         <v>1.8</v>
       </c>
       <c r="CF153" t="n">
-        <v>3.100000000000001</v>
+        <v>3.12</v>
       </c>
       <c r="CG153" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154">
@@ -40196,10 +40196,10 @@
         <v>155</v>
       </c>
       <c r="S154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T154" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="U154" t="n">
         <v>56.29</v>
@@ -40259,10 +40259,10 @@
         <v>147</v>
       </c>
       <c r="AN154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO154" t="n">
-        <v>4.9</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="AP154" t="n">
         <v>63.13</v>
@@ -40322,10 +40322,10 @@
         <v>146</v>
       </c>
       <c r="BI154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ154" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BK154" t="n">
         <v>58.92</v>
@@ -40391,10 +40391,10 @@
         <v>4.699999999999999</v>
       </c>
       <c r="CF154" t="n">
-        <v>2.92</v>
+        <v>3.08</v>
       </c>
       <c r="CG154" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155">
@@ -40457,10 +40457,10 @@
         <v>131</v>
       </c>
       <c r="S155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T155" t="n">
-        <v>2.600000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="U155" t="n">
         <v>65.17</v>
@@ -40520,10 +40520,10 @@
         <v>152</v>
       </c>
       <c r="AN155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO155" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AP155" t="n">
         <v>65.19</v>
@@ -40646,16 +40646,16 @@
         <v>120</v>
       </c>
       <c r="CD155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE155" t="n">
-        <v>0.8</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="CF155" t="n">
-        <v>2.800000000000001</v>
+        <v>2.900000000000001</v>
       </c>
       <c r="CG155" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156">
@@ -40718,10 +40718,10 @@
         <v>157</v>
       </c>
       <c r="S156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T156" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U156" t="n">
         <v>47.93</v>
@@ -40844,10 +40844,10 @@
         <v>153</v>
       </c>
       <c r="BI156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ156" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="BK156" t="n">
         <v>53.44</v>
@@ -40907,16 +40907,16 @@
         <v>149</v>
       </c>
       <c r="CD156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE156" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="CF156" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="CG156" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157">
@@ -40979,10 +40979,10 @@
         <v>101</v>
       </c>
       <c r="S157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T157" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U157" t="n">
         <v>63.28</v>
@@ -41174,10 +41174,10 @@
         <v>3.6</v>
       </c>
       <c r="CF157" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="CG157" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158">
@@ -41240,10 +41240,10 @@
         <v>129</v>
       </c>
       <c r="S158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T158" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="U158" t="n">
         <v>58.33</v>
@@ -41429,16 +41429,16 @@
         <v>99</v>
       </c>
       <c r="CD158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE158" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="CF158" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="CG158" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159">
@@ -41627,10 +41627,10 @@
         <v>101</v>
       </c>
       <c r="BI159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ159" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="BK159" t="n">
         <v>54.99</v>
@@ -41696,10 +41696,10 @@
         <v>4</v>
       </c>
       <c r="CF159" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="CG159" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160">
@@ -41762,10 +41762,10 @@
         <v>122</v>
       </c>
       <c r="S160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T160" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="U160" t="n">
         <v>55.34</v>
@@ -41951,16 +41951,16 @@
         <v>153</v>
       </c>
       <c r="CD160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE160" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="CF160" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="CG160" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161">
@@ -42086,10 +42086,10 @@
         <v>151</v>
       </c>
       <c r="AN161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO161" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP161" t="n">
         <v>66.33</v>
@@ -42149,10 +42149,10 @@
         <v>64</v>
       </c>
       <c r="BI161" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ161" t="n">
-        <v>5.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="BK161" t="n">
         <v>67.86</v>
@@ -42218,10 +42218,10 @@
         <v>2.6</v>
       </c>
       <c r="CF161" t="n">
-        <v>2.700000000000001</v>
+        <v>2.76</v>
       </c>
       <c r="CG161" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162">
@@ -42482,7 +42482,7 @@
         <v>2.72</v>
       </c>
       <c r="CG162" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163">
@@ -42545,10 +42545,10 @@
         <v>128</v>
       </c>
       <c r="S163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T163" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="U163" t="n">
         <v>58.75</v>
@@ -42734,16 +42734,16 @@
         <v>154</v>
       </c>
       <c r="CD163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE163" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="CF163" t="n">
-        <v>2.640000000000001</v>
+        <v>2.720000000000001</v>
       </c>
       <c r="CG163" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164">
@@ -42806,10 +42806,10 @@
         <v>144</v>
       </c>
       <c r="S164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T164" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="U164" t="n">
         <v>51.15</v>
@@ -42932,10 +42932,10 @@
         <v>125</v>
       </c>
       <c r="BI164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ164" t="n">
-        <v>2.800000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="BK164" t="n">
         <v>56.66</v>
@@ -43001,7 +43001,7 @@
         <v>3.7</v>
       </c>
       <c r="CF164" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="CG164" t="n">
         <v>164</v>
@@ -43067,10 +43067,10 @@
         <v>120</v>
       </c>
       <c r="S165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T165" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="U165" t="n">
         <v>58.64</v>
@@ -43262,10 +43262,10 @@
         <v>4.3</v>
       </c>
       <c r="CF165" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="CG165" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166">
@@ -43328,10 +43328,10 @@
         <v>143</v>
       </c>
       <c r="S166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T166" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U166" t="n">
         <v>60.76</v>
@@ -43391,10 +43391,10 @@
         <v>156</v>
       </c>
       <c r="AN166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO166" t="n">
-        <v>2.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="AP166" t="n">
         <v>61.59</v>
@@ -43454,10 +43454,10 @@
         <v>39</v>
       </c>
       <c r="BI166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ166" t="n">
-        <v>4.699999999999999</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="BK166" t="n">
         <v>63.02</v>
@@ -43523,7 +43523,7 @@
         <v>3.6</v>
       </c>
       <c r="CF166" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="CG166" t="n">
         <v>167</v>
@@ -43589,10 +43589,10 @@
         <v>142</v>
       </c>
       <c r="S167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T167" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U167" t="n">
         <v>54.96</v>
@@ -43778,13 +43778,13 @@
         <v>123</v>
       </c>
       <c r="CD167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE167" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="CF167" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="CG167" t="n">
         <v>165</v>
@@ -43850,10 +43850,10 @@
         <v>145</v>
       </c>
       <c r="S168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T168" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="U168" t="n">
         <v>51.41</v>
@@ -43976,10 +43976,10 @@
         <v>156</v>
       </c>
       <c r="BI168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ168" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="BK168" t="n">
         <v>55.36</v>
@@ -44045,10 +44045,10 @@
         <v>4.999999999999999</v>
       </c>
       <c r="CF168" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="CG168" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169">
@@ -44111,10 +44111,10 @@
         <v>151</v>
       </c>
       <c r="S169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T169" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="U169" t="n">
         <v>59.7</v>
@@ -44174,10 +44174,10 @@
         <v>149</v>
       </c>
       <c r="AN169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO169" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AP169" t="n">
         <v>62.28</v>
@@ -44237,10 +44237,10 @@
         <v>152</v>
       </c>
       <c r="BI169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ169" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BK169" t="n">
         <v>67.3</v>
@@ -44300,16 +44300,16 @@
         <v>151</v>
       </c>
       <c r="CD169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE169" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="CF169" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="CG169" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170">
@@ -44372,10 +44372,10 @@
         <v>149</v>
       </c>
       <c r="S170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T170" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="U170" t="n">
         <v>54.71</v>
@@ -44561,13 +44561,13 @@
         <v>144</v>
       </c>
       <c r="CD170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE170" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="CF170" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="CG170" t="n">
         <v>168</v>
@@ -44633,10 +44633,10 @@
         <v>154</v>
       </c>
       <c r="S171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T171" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="U171" t="n">
         <v>49.35</v>
@@ -44696,10 +44696,10 @@
         <v>127</v>
       </c>
       <c r="AN171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO171" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AP171" t="n">
         <v>51.32</v>
@@ -44822,16 +44822,16 @@
         <v>156</v>
       </c>
       <c r="CD171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE171" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="CF171" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="CG171" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172">
@@ -44894,10 +44894,10 @@
         <v>146</v>
       </c>
       <c r="S172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T172" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="U172" t="n">
         <v>55.05</v>
@@ -44957,10 +44957,10 @@
         <v>132</v>
       </c>
       <c r="AN172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO172" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AP172" t="n">
         <v>57.78</v>
@@ -45020,10 +45020,10 @@
         <v>95</v>
       </c>
       <c r="BI172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ172" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BK172" t="n">
         <v>59.64</v>
@@ -45083,13 +45083,13 @@
         <v>124</v>
       </c>
       <c r="CD172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE172" t="n">
-        <v>2.600000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="CF172" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="CG172" t="n">
         <v>171</v>
@@ -45155,10 +45155,10 @@
         <v>148</v>
       </c>
       <c r="S173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T173" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U173" t="n">
         <v>53.98</v>
@@ -45218,10 +45218,10 @@
         <v>103</v>
       </c>
       <c r="AN173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO173" t="n">
-        <v>4.5</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="AP173" t="n">
         <v>59.91</v>
@@ -45344,13 +45344,13 @@
         <v>125</v>
       </c>
       <c r="CD173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE173" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="CF173" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="CG173" t="n">
         <v>174</v>
@@ -45416,10 +45416,10 @@
         <v>150</v>
       </c>
       <c r="S174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T174" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="U174" t="n">
         <v>54.86</v>
@@ -45479,10 +45479,10 @@
         <v>155</v>
       </c>
       <c r="AN174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO174" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AP174" t="n">
         <v>58.6</v>
@@ -45605,16 +45605,16 @@
         <v>150</v>
       </c>
       <c r="CD174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE174" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="CF174" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="CG174" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175">
@@ -45875,7 +45875,7 @@
         <v>1.9</v>
       </c>
       <c r="CG175" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176">
@@ -45938,10 +45938,10 @@
         <v>152</v>
       </c>
       <c r="S176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T176" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U176" t="n">
         <v>49.96</v>
@@ -46001,10 +46001,10 @@
         <v>130</v>
       </c>
       <c r="AN176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO176" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AP176" t="n">
         <v>56.25</v>
@@ -46064,10 +46064,10 @@
         <v>155</v>
       </c>
       <c r="BI176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ176" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BK176" t="n">
         <v>61.04</v>
@@ -46133,7 +46133,7 @@
         <v>1.4</v>
       </c>
       <c r="CF176" t="n">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="CG176" t="n">
         <v>175</v>

--- a/语文排名赋分结果_动态识别版.xlsx
+++ b/语文排名赋分结果_动态识别版.xlsx
@@ -1867,7 +1867,7 @@
         <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.61</v>
+        <v>8.010000000000002</v>
       </c>
       <c r="U6" t="n">
         <v>84.09</v>
@@ -2049,10 +2049,10 @@
         <v>6.61</v>
       </c>
       <c r="CF6" t="n">
-        <v>6.114000000000001</v>
+        <v>6.274000000000001</v>
       </c>
       <c r="CG6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2291,7 +2291,7 @@
         <v>6.270000000000001</v>
       </c>
       <c r="CG7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2530,7 +2530,7 @@
         <v>6.214000000000001</v>
       </c>
       <c r="CG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2628,7 +2628,7 @@
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="AG9" t="n">
         <v>97.83</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.81</v>
+        <v>5.210000000000001</v>
       </c>
       <c r="AP9" t="n">
         <v>90.86</v>
@@ -2766,10 +2766,10 @@
         <v>5.31</v>
       </c>
       <c r="CF9" t="n">
-        <v>6.070000000000001</v>
+        <v>6.150000000000001</v>
       </c>
       <c r="CG9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3008,7 +3008,7 @@
         <v>6.100000000000001</v>
       </c>
       <c r="CG10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -3247,7 +3247,7 @@
         <v>6.094000000000001</v>
       </c>
       <c r="CG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3333,7 +3333,7 @@
         <v>158</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AC12" t="n">
         <v>60.87</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.830000000000001</v>
+        <v>4.41</v>
       </c>
       <c r="AP12" t="n">
         <v>88.41</v>
@@ -3483,10 +3483,10 @@
         <v>4.83</v>
       </c>
       <c r="CF12" t="n">
-        <v>5.958000000000001</v>
+        <v>6.074000000000001</v>
       </c>
       <c r="CG12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -3725,7 +3725,7 @@
         <v>6.050000000000001</v>
       </c>
       <c r="CG13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -3964,7 +3964,7 @@
         <v>6.034000000000001</v>
       </c>
       <c r="CG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -5203,7 +5203,7 @@
         <v>5.540000000000001</v>
       </c>
       <c r="CG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -5230,7 +5230,7 @@
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="H20" t="n">
         <v>23.91</v>
@@ -5248,7 +5248,7 @@
         <v>18</v>
       </c>
       <c r="M20" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="N20" t="n">
         <v>91.3</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.61</v>
+        <v>7.61</v>
       </c>
       <c r="U20" t="n">
         <v>82.69</v>
@@ -5439,10 +5439,10 @@
         <v>6.61</v>
       </c>
       <c r="CF20" t="n">
-        <v>5.178</v>
+        <v>5.578</v>
       </c>
       <c r="CG20" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -5681,7 +5681,7 @@
         <v>5.494000000000001</v>
       </c>
       <c r="CG21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -5942,7 +5942,7 @@
         <v>5.440000000000001</v>
       </c>
       <c r="CG22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -6107,7 +6107,7 @@
         <v>18</v>
       </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB23" t="n">
         <v>62.22</v>
@@ -6134,7 +6134,7 @@
         <v>4</v>
       </c>
       <c r="BJ23" t="n">
-        <v>4.2</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="BK23" t="n">
         <v>64.88</v>
@@ -6200,10 +6200,10 @@
         <v>7.399999999999999</v>
       </c>
       <c r="CF23" t="n">
-        <v>5.32</v>
+        <v>5.4</v>
       </c>
       <c r="CG23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -6443,7 +6443,7 @@
         <v>18</v>
       </c>
       <c r="BZ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CA24" t="n">
         <v>2.08</v>
@@ -6458,13 +6458,13 @@
         <v>5</v>
       </c>
       <c r="CE24" t="n">
-        <v>6.3</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="CF24" t="n">
-        <v>5.220000000000001</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="CG24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -6725,7 +6725,7 @@
         <v>5.18</v>
       </c>
       <c r="CG25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -7283,7 +7283,7 @@
         <v>18</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
         <v>39.58</v>
@@ -7313,7 +7313,7 @@
         <v>8</v>
       </c>
       <c r="T28" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="U28" t="n">
         <v>79.23</v>
@@ -7505,10 +7505,10 @@
         <v>3.1</v>
       </c>
       <c r="CF28" t="n">
-        <v>4.9</v>
+        <v>5.06</v>
       </c>
       <c r="CG28" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -8291,7 +8291,7 @@
         <v>4.960000000000001</v>
       </c>
       <c r="CG31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -9074,7 +9074,7 @@
         <v>4.9</v>
       </c>
       <c r="CG34" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
@@ -9335,7 +9335,7 @@
         <v>4.96</v>
       </c>
       <c r="CG35" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -9596,7 +9596,7 @@
         <v>4.94</v>
       </c>
       <c r="CG36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -9857,7 +9857,7 @@
         <v>4.960000000000001</v>
       </c>
       <c r="CG37" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -10607,7 +10607,7 @@
         <v>18</v>
       </c>
       <c r="BV40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW40" t="n">
         <v>66.67</v>
@@ -10634,13 +10634,13 @@
         <v>5</v>
       </c>
       <c r="CE40" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="CF40" t="n">
-        <v>4.780000000000001</v>
+        <v>4.86</v>
       </c>
       <c r="CG40" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -10901,7 +10901,7 @@
         <v>4.8</v>
       </c>
       <c r="CG41" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
@@ -11837,7 +11837,7 @@
         <v>18</v>
       </c>
       <c r="AW45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX45" t="n">
         <v>13.16</v>
@@ -11876,7 +11876,7 @@
         <v>4</v>
       </c>
       <c r="BJ45" t="n">
-        <v>5.100000000000001</v>
+        <v>5.500000000000001</v>
       </c>
       <c r="BK45" t="n">
         <v>72.45</v>
@@ -11942,10 +11942,10 @@
         <v>3</v>
       </c>
       <c r="CF45" t="n">
-        <v>4.48</v>
+        <v>4.56</v>
       </c>
       <c r="CG45" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -12296,7 +12296,7 @@
         <v>18</v>
       </c>
       <c r="AB47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC47" t="n">
         <v>14.29</v>
@@ -12335,7 +12335,7 @@
         <v>5</v>
       </c>
       <c r="AO47" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AP47" t="n">
         <v>69.47</v>
@@ -12464,10 +12464,10 @@
         <v>6.999999999999999</v>
       </c>
       <c r="CF47" t="n">
-        <v>4.44</v>
+        <v>4.52</v>
       </c>
       <c r="CG47" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
@@ -13574,10 +13574,10 @@
         <v>18</v>
       </c>
       <c r="S52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T52" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="U52" t="n">
         <v>70.59</v>
@@ -13769,10 +13769,10 @@
         <v>3.5</v>
       </c>
       <c r="CF52" t="n">
-        <v>4.44</v>
+        <v>4.52</v>
       </c>
       <c r="CG52" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -13961,10 +13961,10 @@
         <v>18</v>
       </c>
       <c r="BI53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ53" t="n">
-        <v>4.199999999999999</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="BK53" t="n">
         <v>75.02</v>
@@ -14030,10 +14030,10 @@
         <v>5.100000000000001</v>
       </c>
       <c r="CF53" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="CG53" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
@@ -14321,7 +14321,7 @@
         <v>158</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>8.57</v>
@@ -14360,7 +14360,7 @@
         <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="U55" t="n">
         <v>56.31</v>
@@ -14552,10 +14552,10 @@
         <v>3.6</v>
       </c>
       <c r="CF55" t="n">
-        <v>4.24</v>
+        <v>4.48</v>
       </c>
       <c r="CG55" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
@@ -14795,7 +14795,7 @@
         <v>158</v>
       </c>
       <c r="BZ56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA56" t="n">
         <v>7.69</v>
@@ -14810,13 +14810,13 @@
         <v>5</v>
       </c>
       <c r="CE56" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="CF56" t="n">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
       <c r="CG56" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57">
@@ -15077,7 +15077,7 @@
         <v>4.48</v>
       </c>
       <c r="CG57" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
@@ -15338,7 +15338,7 @@
         <v>4.38</v>
       </c>
       <c r="CG58" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
@@ -15515,7 +15515,7 @@
         <v>18</v>
       </c>
       <c r="BE59" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF59" t="n">
         <v>11.9</v>
@@ -15530,7 +15530,7 @@
         <v>6</v>
       </c>
       <c r="BJ59" t="n">
-        <v>6.600000000000001</v>
+        <v>7</v>
       </c>
       <c r="BK59" t="n">
         <v>73.93000000000001</v>
@@ -15542,7 +15542,7 @@
         <v>158</v>
       </c>
       <c r="BN59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO59" t="n">
         <v>15.91</v>
@@ -15593,13 +15593,13 @@
         <v>3</v>
       </c>
       <c r="CE59" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="CF59" t="n">
-        <v>4.260000000000001</v>
+        <v>4.46</v>
       </c>
       <c r="CG59" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
@@ -15860,7 +15860,7 @@
         <v>4.42</v>
       </c>
       <c r="CG60" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
@@ -16121,7 +16121,7 @@
         <v>4.42</v>
       </c>
       <c r="CG61" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
@@ -16382,7 +16382,7 @@
         <v>4.42</v>
       </c>
       <c r="CG62" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63">
@@ -16643,7 +16643,7 @@
         <v>4.340000000000001</v>
       </c>
       <c r="CG63" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64">
@@ -16745,7 +16745,7 @@
         <v>158</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG64" t="n">
         <v>45.83</v>
@@ -16772,7 +16772,7 @@
         <v>3</v>
       </c>
       <c r="AO64" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AP64" t="n">
         <v>68.90000000000001</v>
@@ -16901,10 +16901,10 @@
         <v>6</v>
       </c>
       <c r="CF64" t="n">
-        <v>4.300000000000001</v>
+        <v>4.380000000000001</v>
       </c>
       <c r="CG64" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65">
@@ -17156,16 +17156,16 @@
         <v>18</v>
       </c>
       <c r="CD65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE65" t="n">
-        <v>3.4</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="CF65" t="n">
-        <v>4.220000000000001</v>
+        <v>4.26</v>
       </c>
       <c r="CG65" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66">
@@ -17426,7 +17426,7 @@
         <v>4.280000000000001</v>
       </c>
       <c r="CG66" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
@@ -17687,7 +17687,7 @@
         <v>4.32</v>
       </c>
       <c r="CG67" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68">
@@ -17948,7 +17948,7 @@
         <v>4.32</v>
       </c>
       <c r="CG68" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69">
@@ -18209,7 +18209,7 @@
         <v>4.24</v>
       </c>
       <c r="CG69" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70">
@@ -18731,7 +18731,7 @@
         <v>4.28</v>
       </c>
       <c r="CG71" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72">
@@ -19253,7 +19253,7 @@
         <v>4.220000000000001</v>
       </c>
       <c r="CG73" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74">
@@ -22907,7 +22907,7 @@
         <v>3.86</v>
       </c>
       <c r="CG87" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88">
@@ -25517,7 +25517,7 @@
         <v>3.82</v>
       </c>
       <c r="CG97" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
@@ -25778,7 +25778,7 @@
         <v>3.820000000000001</v>
       </c>
       <c r="CG98" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
@@ -26039,7 +26039,7 @@
         <v>3.84</v>
       </c>
       <c r="CG99" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
@@ -26243,7 +26243,7 @@
         <v>18</v>
       </c>
       <c r="BN100" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO100" t="n">
         <v>4.76</v>
@@ -26294,13 +26294,13 @@
         <v>8</v>
       </c>
       <c r="CE100" t="n">
-        <v>4.999999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="CF100" t="n">
-        <v>3.66</v>
+        <v>3.78</v>
       </c>
       <c r="CG100" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
@@ -26561,7 +26561,7 @@
         <v>3.740000000000001</v>
       </c>
       <c r="CG101" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102">
@@ -26987,7 +26987,7 @@
         <v>158</v>
       </c>
       <c r="BA103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB103" t="n">
         <v>60.98</v>
@@ -27014,7 +27014,7 @@
         <v>3</v>
       </c>
       <c r="BJ103" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="BK103" t="n">
         <v>69.28</v>
@@ -27080,10 +27080,10 @@
         <v>5.3</v>
       </c>
       <c r="CF103" t="n">
-        <v>3.8</v>
+        <v>3.88</v>
       </c>
       <c r="CG103" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
@@ -27344,7 +27344,7 @@
         <v>3.76</v>
       </c>
       <c r="CG104" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
@@ -27605,7 +27605,7 @@
         <v>3.86</v>
       </c>
       <c r="CG105" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106">
@@ -27866,7 +27866,7 @@
         <v>3.86</v>
       </c>
       <c r="CG106" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107">
@@ -28127,7 +28127,7 @@
         <v>3.82</v>
       </c>
       <c r="CG107" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108">
@@ -28388,7 +28388,7 @@
         <v>3.68</v>
       </c>
       <c r="CG108" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109">
@@ -28649,7 +28649,7 @@
         <v>3.66</v>
       </c>
       <c r="CG109" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110">
@@ -28910,7 +28910,7 @@
         <v>3.760000000000001</v>
       </c>
       <c r="CG110" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111">
@@ -29171,7 +29171,7 @@
         <v>3.8</v>
       </c>
       <c r="CG111" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
@@ -29387,7 +29387,7 @@
         <v>18</v>
       </c>
       <c r="BR112" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS112" t="n">
         <v>17.78</v>
@@ -29426,13 +29426,13 @@
         <v>6</v>
       </c>
       <c r="CE112" t="n">
-        <v>6.800000000000001</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="CF112" t="n">
-        <v>3.72</v>
+        <v>3.8</v>
       </c>
       <c r="CG112" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
@@ -29693,7 +29693,7 @@
         <v>3.66</v>
       </c>
       <c r="CG113" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
@@ -29954,7 +29954,7 @@
         <v>3.700000000000001</v>
       </c>
       <c r="CG114" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115">
@@ -30215,7 +30215,7 @@
         <v>3.7</v>
       </c>
       <c r="CG115" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116">
@@ -30368,7 +30368,7 @@
         <v>158</v>
       </c>
       <c r="AW116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX116" t="n">
         <v>16.28</v>
@@ -30407,7 +30407,7 @@
         <v>3</v>
       </c>
       <c r="BJ116" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="BK116" t="n">
         <v>72.33</v>
@@ -30473,10 +30473,10 @@
         <v>3.4</v>
       </c>
       <c r="CF116" t="n">
-        <v>3.600000000000001</v>
+        <v>3.680000000000001</v>
       </c>
       <c r="CG116" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
@@ -30998,7 +30998,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="CG118" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
@@ -31259,7 +31259,7 @@
         <v>3.56</v>
       </c>
       <c r="CG119" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120">
@@ -31475,7 +31475,7 @@
         <v>158</v>
       </c>
       <c r="BR120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS120" t="n">
         <v>14.89</v>
@@ -31514,13 +31514,13 @@
         <v>5</v>
       </c>
       <c r="CE120" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="CF120" t="n">
-        <v>3.56</v>
+        <v>3.64</v>
       </c>
       <c r="CG120" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
@@ -31634,7 +31634,7 @@
         <v>18</v>
       </c>
       <c r="AJ121" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK121" t="n">
         <v>33.33</v>
@@ -31649,7 +31649,7 @@
         <v>6</v>
       </c>
       <c r="AO121" t="n">
-        <v>6.4</v>
+        <v>6.799999999999999</v>
       </c>
       <c r="AP121" t="n">
         <v>59.05</v>
@@ -31778,10 +31778,10 @@
         <v>4.5</v>
       </c>
       <c r="CF121" t="n">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="CG121" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122">
@@ -32303,7 +32303,7 @@
         <v>3.6</v>
       </c>
       <c r="CG123" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
@@ -33869,7 +33869,7 @@
         <v>3.46</v>
       </c>
       <c r="CG129" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
@@ -34130,7 +34130,7 @@
         <v>3.26</v>
       </c>
       <c r="CG130" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
@@ -34706,7 +34706,7 @@
         <v>158</v>
       </c>
       <c r="P133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q133" t="n">
         <v>17.5</v>
@@ -34718,7 +34718,7 @@
         <v>3</v>
       </c>
       <c r="T133" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="U133" t="n">
         <v>59.78</v>
@@ -34910,10 +34910,10 @@
         <v>3.2</v>
       </c>
       <c r="CF133" t="n">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="CG133" t="n">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
@@ -35435,7 +35435,7 @@
         <v>3.3</v>
       </c>
       <c r="CG135" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136">
@@ -35696,7 +35696,7 @@
         <v>3.28</v>
       </c>
       <c r="CG136" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137">
@@ -35957,7 +35957,7 @@
         <v>3.320000000000001</v>
       </c>
       <c r="CG137" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
@@ -36218,7 +36218,7 @@
         <v>3.3</v>
       </c>
       <c r="CG138" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
@@ -36479,7 +36479,7 @@
         <v>3.28</v>
       </c>
       <c r="CG139" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
@@ -36740,7 +36740,7 @@
         <v>3.32</v>
       </c>
       <c r="CG140" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
@@ -37001,7 +37001,7 @@
         <v>3.3</v>
       </c>
       <c r="CG141" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
@@ -37262,7 +37262,7 @@
         <v>3.22</v>
       </c>
       <c r="CG142" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143">
@@ -37388,10 +37388,10 @@
         <v>18</v>
       </c>
       <c r="AN143" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO143" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AP143" t="n">
         <v>66.44</v>
@@ -37520,7 +37520,7 @@
         <v>3.7</v>
       </c>
       <c r="CF143" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="CG143" t="n">
         <v>141</v>
@@ -37784,7 +37784,7 @@
         <v>3.180000000000001</v>
       </c>
       <c r="CG144" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145">
@@ -37898,7 +37898,7 @@
         <v>158</v>
       </c>
       <c r="AJ145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK145" t="n">
         <v>13.95</v>
@@ -37913,7 +37913,7 @@
         <v>4</v>
       </c>
       <c r="AO145" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AP145" t="n">
         <v>70.48999999999999</v>
@@ -38042,10 +38042,10 @@
         <v>4</v>
       </c>
       <c r="CF145" t="n">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="CG145" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146">
@@ -38306,7 +38306,7 @@
         <v>3.180000000000001</v>
       </c>
       <c r="CG146" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147">
@@ -38567,7 +38567,7 @@
         <v>3.16</v>
       </c>
       <c r="CG147" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148">
@@ -39089,7 +39089,7 @@
         <v>3</v>
       </c>
       <c r="CG149" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150">
@@ -39350,7 +39350,7 @@
         <v>3.18</v>
       </c>
       <c r="CG150" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
@@ -39611,7 +39611,7 @@
         <v>3.02</v>
       </c>
       <c r="CG151" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152">
@@ -40535,7 +40535,7 @@
         <v>18</v>
       </c>
       <c r="AS155" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT155" t="n">
         <v>0</v>
@@ -40586,7 +40586,7 @@
         <v>6</v>
       </c>
       <c r="BJ155" t="n">
-        <v>5.200000000000001</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="BK155" t="n">
         <v>68.40000000000001</v>
@@ -40652,10 +40652,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="CF155" t="n">
-        <v>2.900000000000001</v>
+        <v>3.02</v>
       </c>
       <c r="CG155" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156">
@@ -40916,7 +40916,7 @@
         <v>3</v>
       </c>
       <c r="CG156" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157">
@@ -41177,7 +41177,7 @@
         <v>2.98</v>
       </c>
       <c r="CG157" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158">
@@ -41438,7 +41438,7 @@
         <v>2.98</v>
       </c>
       <c r="CG158" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159">
@@ -41699,7 +41699,7 @@
         <v>2.84</v>
       </c>
       <c r="CG159" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160">
@@ -41960,7 +41960,7 @@
         <v>2.64</v>
       </c>
       <c r="CG160" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161">
@@ -42038,7 +42038,7 @@
         <v>158</v>
       </c>
       <c r="X161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y161" t="n">
         <v>10</v>
@@ -42089,7 +42089,7 @@
         <v>2</v>
       </c>
       <c r="AO161" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AP161" t="n">
         <v>66.33</v>
@@ -42218,10 +42218,10 @@
         <v>2.6</v>
       </c>
       <c r="CF161" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="CG161" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162">
@@ -42449,7 +42449,7 @@
         <v>158</v>
       </c>
       <c r="BV162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW162" t="n">
         <v>45</v>
@@ -42476,13 +42476,13 @@
         <v>2</v>
       </c>
       <c r="CE162" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="CF162" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="CG162" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163">
@@ -42659,7 +42659,7 @@
         <v>158</v>
       </c>
       <c r="BE163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF163" t="n">
         <v>28.57</v>
@@ -42674,7 +42674,7 @@
         <v>6</v>
       </c>
       <c r="BJ163" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="BK163" t="n">
         <v>69.34</v>
@@ -42740,7 +42740,7 @@
         <v>1.4</v>
       </c>
       <c r="CF163" t="n">
-        <v>2.720000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="CG163" t="n">
         <v>161</v>
@@ -43004,7 +43004,7 @@
         <v>2.68</v>
       </c>
       <c r="CG164" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165">
@@ -43265,7 +43265,7 @@
         <v>2.72</v>
       </c>
       <c r="CG165" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166">
@@ -43301,7 +43301,7 @@
         <v>158</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K166" t="n">
         <v>8.51</v>
@@ -43331,7 +43331,7 @@
         <v>2</v>
       </c>
       <c r="T166" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="U166" t="n">
         <v>60.76</v>
@@ -43523,10 +43523,10 @@
         <v>3.6</v>
       </c>
       <c r="CF166" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="CG166" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167">
@@ -43604,7 +43604,7 @@
         <v>18</v>
       </c>
       <c r="X167" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y167" t="n">
         <v>2.22</v>
@@ -43655,7 +43655,7 @@
         <v>5</v>
       </c>
       <c r="AO167" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="AP167" t="n">
         <v>58.12</v>
@@ -43784,10 +43784,10 @@
         <v>4.3</v>
       </c>
       <c r="CF167" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="CG167" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168">
@@ -44048,7 +44048,7 @@
         <v>2.76</v>
       </c>
       <c r="CG168" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169">
@@ -44093,7 +44093,7 @@
         <v>158</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N169" t="n">
         <v>30</v>
@@ -44114,7 +44114,7 @@
         <v>2</v>
       </c>
       <c r="T169" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="U169" t="n">
         <v>59.7</v>
@@ -44306,10 +44306,10 @@
         <v>2.2</v>
       </c>
       <c r="CF169" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="CG169" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170">
@@ -44570,7 +44570,7 @@
         <v>2.52</v>
       </c>
       <c r="CG170" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
@@ -45233,7 +45233,7 @@
         <v>158</v>
       </c>
       <c r="AS173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT173" t="n">
         <v>3.03</v>
@@ -45284,7 +45284,7 @@
         <v>2</v>
       </c>
       <c r="BJ173" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="BK173" t="n">
         <v>60.51</v>
@@ -45350,10 +45350,10 @@
         <v>3.1</v>
       </c>
       <c r="CF173" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="CG173" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174">
@@ -45614,7 +45614,7 @@
         <v>1.94</v>
       </c>
       <c r="CG174" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175">
@@ -45875,7 +45875,7 @@
         <v>1.9</v>
       </c>
       <c r="CG175" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176">
